--- a/KBS/data/LCILogin.xlsx
+++ b/KBS/data/LCILogin.xlsx
@@ -1,16 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7875" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="15480" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="4" r:id="rId1"/>
     <sheet name="Login" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -64,8 +62,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,7 +196,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -233,7 +230,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,21 +405,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -434,7 +430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -445,7 +441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -456,7 +452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -474,18 +470,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -496,7 +494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -511,28 +509,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>